--- a/RB-Blessing/Ischikawa.xlsx
+++ b/RB-Blessing/Ischikawa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D928F-792A-460C-8A14-F88A7A0F41C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBDE24-A147-4601-8562-EE38986FAB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Ishikawa-Diagramm'!$C$2:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -111,15 +111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -135,9 +135,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="228600" y="4624916"/>
-          <a:ext cx="9042400" cy="1058"/>
+        <a:xfrm>
+          <a:off x="1212849" y="4705349"/>
+          <a:ext cx="9224963" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -226,9 +226,19 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Produktion</a:t>
+            <a:t>P</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>roduktion</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -483,15 +493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>684213</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:rowOff>234949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1008063</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>34924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -508,7 +518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="723900" y="6581774"/>
+          <a:off x="1668463" y="6759574"/>
           <a:ext cx="1371600" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -544,9 +554,19 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Kunde</a:t>
+            <a:t>K</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>unde</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -555,15 +575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>36512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -580,8 +600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2247900" y="4143375"/>
-          <a:ext cx="800100" cy="190500"/>
+          <a:off x="3756025" y="6770687"/>
+          <a:ext cx="1371600" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,9 +636,19 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Entwicklung</a:t>
+            <a:t>E</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>ntwicklung</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -627,15 +657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>658813</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>696913</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -652,8 +682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3762375" y="4152900"/>
-          <a:ext cx="800100" cy="190500"/>
+          <a:off x="5834063" y="6772274"/>
+          <a:ext cx="1085850" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,15 +955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>396875</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>230185</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -950,8 +980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1076325" y="2847975"/>
-          <a:ext cx="762000" cy="1266825"/>
+          <a:off x="2301874" y="4738687"/>
+          <a:ext cx="1174751" cy="2016123"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -979,15 +1009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>365125</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>238123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1004,8 +1034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2619375" y="2838450"/>
-          <a:ext cx="762000" cy="1266825"/>
+          <a:off x="4445000" y="4738687"/>
+          <a:ext cx="1095375" cy="2024061"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1033,15 +1063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>388937</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1058,8 +1088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4124325" y="2847975"/>
-          <a:ext cx="762000" cy="1266825"/>
+          <a:off x="6469062" y="4746625"/>
+          <a:ext cx="1190625" cy="2016124"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1155,15 +1185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>134938</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>760412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1180,7 +1210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1119188" y="3686175"/>
+          <a:off x="1222375" y="3813175"/>
           <a:ext cx="1570037" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrowCallout">
@@ -1229,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
+      <xdr:colOff>436562</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65087</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1254,7 +1284,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1381125" y="5067300"/>
+          <a:off x="1420812" y="5051425"/>
           <a:ext cx="1763712" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrowCallout">
@@ -1303,15 +1333,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>712787</xdr:colOff>
+      <xdr:colOff>776287</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>960437</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1328,7 +1358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3792537" y="5319712"/>
+          <a:off x="3856037" y="5280025"/>
           <a:ext cx="1295400" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrowCallout">
@@ -1437,12 +1467,15 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Verschleiß</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="de-DE">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1672,154 +1705,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>674687</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>236536</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="AutoShape 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7F8B2C-4377-446F-983B-65707F2E805E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="674687" y="2857500"/>
-          <a:ext cx="1593849" cy="377826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrowCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 25000"/>
-            <a:gd name="adj2" fmla="val 25000"/>
-            <a:gd name="adj3" fmla="val 84127"/>
-            <a:gd name="adj4" fmla="val 66667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Maschinen ungeeignet</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>230188</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>839787</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="AutoShape 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AE932C-D656-4F30-9247-2000413FC00D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="230188" y="1968500"/>
-          <a:ext cx="1593849" cy="377826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrowCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 25000"/>
-            <a:gd name="adj2" fmla="val 25000"/>
-            <a:gd name="adj3" fmla="val 84127"/>
-            <a:gd name="adj4" fmla="val 66667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>fehlende Kapazität</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103187</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -2550,7 +2435,7 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Soziale/Privte Probleme</a:t>
+            <a:t>Soziale/Private Probleme</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -2847,6 +2732,154 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>Beschaffung</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373063</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5948AC81-2158-43B2-AC2C-614E5E9928EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2405063" y="2984500"/>
+          <a:ext cx="1484313" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 91270"/>
+            <a:gd name="adj4" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Maschinen ungeeignet</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>928689</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>420689</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBCE474-2E6D-4657-8138-FD424FD09EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1912939" y="2008187"/>
+          <a:ext cx="1587500" cy="468313"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 91270"/>
+            <a:gd name="adj4" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>fehlende Kapazität</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE"/>
         </a:p>
@@ -3183,8 +3216,8 @@
   </sheetPr>
   <dimension ref="C2:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3668,21 +3701,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E4A0D8E7B5B7194DB34EDDD2237AEAE9" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="34acba3d20510da96e7c29ce17ffdabe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb715de677b26ad619381b53932d724a">
     <xsd:element name="properties">
@@ -3796,30 +3814,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBB0F360-15D3-4B13-97AF-C2AFB1769A1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E620873-95BB-4276-9A96-84036975C4E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3833,4 +3843,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBB0F360-15D3-4B13-97AF-C2AFB1769A1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RB-Blessing/Ischikawa.xlsx
+++ b/RB-Blessing/Ischikawa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBDE24-A147-4601-8562-EE38986FAB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF3E11-8233-4E27-B175-38070AFAE070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ishikawa-Diagramm" sheetId="4" r:id="rId1"/>
@@ -3216,8 +3216,8 @@
   </sheetPr>
   <dimension ref="C2:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3692,15 +3692,26 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;G</oddHeader>
-  </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E4A0D8E7B5B7194DB34EDDD2237AEAE9" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="34acba3d20510da96e7c29ce17ffdabe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb715de677b26ad619381b53932d724a">
     <xsd:element name="properties">
@@ -3814,33 +3825,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E620873-95BB-4276-9A96-84036975C4E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3861,9 +3849,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E620873-95BB-4276-9A96-84036975C4E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RB-Blessing/Ischikawa.xlsx
+++ b/RB-Blessing/Ischikawa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20340"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF3E11-8233-4E27-B175-38070AFAE070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C6F69-7132-4F5B-8263-9B21101CFF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ishikawa-Diagramm" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ishikawa-Diagramm'!$C$2:$M$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ishikawa-Diagramm'!$A$2:$K$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -110,13 +110,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -164,13 +164,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
@@ -246,13 +246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -328,13 +328,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -410,13 +410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -492,13 +492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>684213</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>234949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1008063</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>34924</xdr:rowOff>
@@ -574,13 +574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -656,13 +656,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>658813</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>696913</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -738,13 +738,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -792,13 +792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>360363</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>53976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>598488</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>44451</xdr:rowOff>
@@ -846,13 +846,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -900,13 +900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -954,13 +954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>269874</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>396875</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>230185</xdr:rowOff>
@@ -1008,13 +1008,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>365125</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>238123</xdr:rowOff>
@@ -1062,13 +1062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>246062</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>388937</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
@@ -1116,13 +1116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>240238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>173563</xdr:rowOff>
@@ -1184,13 +1184,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>760412</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -1258,13 +1258,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>436562</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>193675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
@@ -1332,13 +1332,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>776287</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1023937</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
@@ -1406,13 +1406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>579437</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>150812</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -1483,13 +1483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>566738</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
@@ -1557,13 +1557,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>992187</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>563562</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1631,13 +1631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>212725</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>96837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>936625</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>198437</xdr:rowOff>
@@ -1705,13 +1705,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>103187</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>819149</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1779,13 +1779,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>111126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>454025</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>53976</xdr:rowOff>
@@ -1853,13 +1853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>604838</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
@@ -1927,13 +1927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>992188</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>468313</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -2001,13 +2001,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>738188</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>414338</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>174626</xdr:rowOff>
@@ -2075,13 +2075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>944562</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2149,13 +2149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>230188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>881062</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>30163</xdr:rowOff>
@@ -2223,13 +2223,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
@@ -2297,13 +2297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>222249</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>841374</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
@@ -2371,13 +2371,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>468313</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>174625</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
@@ -2445,13 +2445,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>976312</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -2519,13 +2519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>746125</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
@@ -2593,13 +2593,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>365125</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>198438</xdr:rowOff>
@@ -2667,13 +2667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>119063</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>579438</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
@@ -2741,13 +2741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>373063</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>809626</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2815,13 +2815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>928689</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>420689</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3214,23 +3214,24 @@
   <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
-  <dimension ref="C2:M36"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3239,10 +3240,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3252,10 +3253,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3265,10 +3266,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3278,10 +3279,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3291,10 +3292,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3304,10 +3305,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3317,10 +3318,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3330,10 +3331,10 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3343,10 +3344,10 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3356,10 +3357,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3369,10 +3370,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3382,10 +3383,10 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3395,10 +3396,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3408,10 +3409,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3421,10 +3422,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3434,10 +3435,10 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3447,10 +3448,10 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3460,10 +3461,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3473,10 +3474,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3486,10 +3487,10 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3499,10 +3500,10 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3512,10 +3513,10 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3525,10 +3526,10 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3538,10 +3539,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3551,10 +3552,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3564,10 +3565,10 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3577,10 +3578,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3590,10 +3591,10 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3603,10 +3604,10 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3616,10 +3617,10 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3629,10 +3630,10 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3642,10 +3643,10 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3655,10 +3656,10 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3668,10 +3669,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3681,12 +3682,10 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3697,21 +3696,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E4A0D8E7B5B7194DB34EDDD2237AEAE9" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="34acba3d20510da96e7c29ce17ffdabe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb715de677b26ad619381b53932d724a">
     <xsd:element name="properties">
@@ -3825,10 +3809,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E620873-95BB-4276-9A96-84036975C4E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3849,17 +3856,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E620873-95BB-4276-9A96-84036975C4E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7E677C7-715A-400D-B1EE-90DFC8ACA435}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>